--- a/team_specific_matrix/Morehead St._B.xlsx
+++ b/team_specific_matrix/Morehead St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1885714285714286</v>
+        <v>0.175</v>
       </c>
       <c r="C2">
-        <v>0.5771428571428572</v>
+        <v>0.5928571428571429</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005714285714285714</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1028571428571429</v>
+        <v>0.1035714285714286</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1257142857142857</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8235294117647058</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.1547619047619048</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7222222222222222</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07947019867549669</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01324503311258278</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="F6">
-        <v>0.07947019867549669</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2516556291390729</v>
+        <v>0.273542600896861</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01324503311258278</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2119205298013245</v>
+        <v>0.1838565022421525</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="S6">
-        <v>0.3509933774834437</v>
+        <v>0.3183856502242152</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07575757575757576</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0303030303030303</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E7">
-        <v>0.007575757575757576</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="F7">
-        <v>0.03787878787878788</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09090909090909091</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01515151515151515</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="R7">
-        <v>0.03787878787878788</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="S7">
-        <v>0.4545454545454545</v>
+        <v>0.4594594594594595</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09011627906976744</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02616279069767442</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="E8">
-        <v>0.002906976744186046</v>
+        <v>0.002123142250530786</v>
       </c>
       <c r="F8">
-        <v>0.04651162790697674</v>
+        <v>0.05095541401273886</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09593023255813954</v>
+        <v>0.1061571125265393</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02906976744186046</v>
+        <v>0.02760084925690021</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1686046511627907</v>
+        <v>0.1549893842887473</v>
       </c>
       <c r="R8">
-        <v>0.08430232558139535</v>
+        <v>0.08492569002123142</v>
       </c>
       <c r="S8">
-        <v>0.4563953488372093</v>
+        <v>0.4522292993630573</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1025641025641026</v>
+        <v>0.1003861003861004</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01538461538461539</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06177606177606178</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1128205128205128</v>
+        <v>0.111969111969112</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02051282051282051</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1794871794871795</v>
+        <v>0.1814671814671815</v>
       </c>
       <c r="R9">
-        <v>0.07692307692307693</v>
+        <v>0.08880308880308881</v>
       </c>
       <c r="S9">
-        <v>0.4256410256410256</v>
+        <v>0.416988416988417</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0819277108433735</v>
+        <v>0.1020746887966805</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02289156626506024</v>
+        <v>0.02157676348547718</v>
       </c>
       <c r="E10">
-        <v>0.002409638554216868</v>
+        <v>0.002489626556016597</v>
       </c>
       <c r="F10">
-        <v>0.06746987951807229</v>
+        <v>0.06473029045643154</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1349397590361446</v>
+        <v>0.1286307053941909</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01204819277108434</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1819277108433735</v>
+        <v>0.1867219917012448</v>
       </c>
       <c r="R10">
-        <v>0.06506024096385542</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="S10">
-        <v>0.4313253012048193</v>
+        <v>0.4066390041493776</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1457286432160804</v>
+        <v>0.147887323943662</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1055276381909548</v>
+        <v>0.102112676056338</v>
       </c>
       <c r="K11">
-        <v>0.2160804020100502</v>
+        <v>0.2147887323943662</v>
       </c>
       <c r="L11">
-        <v>0.5125628140703518</v>
+        <v>0.5176056338028169</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02010050251256281</v>
+        <v>0.0176056338028169</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7889908256880734</v>
+        <v>0.7870967741935484</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1376146788990826</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.009174311926605505</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06422018348623854</v>
+        <v>0.05161290322580645</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7575757575757576</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1515151515151515</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005780346820809248</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1676300578034682</v>
+        <v>0.1567796610169492</v>
       </c>
       <c r="I15">
-        <v>0.1098265895953757</v>
+        <v>0.09745762711864407</v>
       </c>
       <c r="J15">
-        <v>0.3410404624277457</v>
+        <v>0.3432203389830508</v>
       </c>
       <c r="K15">
-        <v>0.02312138728323699</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0115606936416185</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05202312138728324</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2890173410404624</v>
+        <v>0.2923728813559322</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.144</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="I16">
-        <v>0.144</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.457286432160804</v>
       </c>
       <c r="K16">
-        <v>0.096</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.024</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.144</v>
+        <v>0.135678391959799</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01967213114754099</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.140983606557377</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="I17">
-        <v>0.1442622950819672</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="J17">
-        <v>0.3672131147540983</v>
+        <v>0.3785714285714286</v>
       </c>
       <c r="K17">
-        <v>0.08196721311475409</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01967213114754099</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08852459016393442</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1377049180327869</v>
+        <v>0.1404761904761905</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009708737864077669</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1067961165048544</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="I18">
-        <v>0.1067961165048544</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="J18">
-        <v>0.3689320388349515</v>
+        <v>0.3354430379746836</v>
       </c>
       <c r="K18">
-        <v>0.145631067961165</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02912621359223301</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06796116504854369</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1650485436893204</v>
+        <v>0.1518987341772152</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02233009708737864</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2378640776699029</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="I19">
-        <v>0.1029126213592233</v>
+        <v>0.1009957325746799</v>
       </c>
       <c r="J19">
-        <v>0.3116504854368932</v>
+        <v>0.3271692745376956</v>
       </c>
       <c r="K19">
-        <v>0.09611650485436893</v>
+        <v>0.09530583214793741</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01941747572815534</v>
+        <v>0.01635846372688478</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007112375533428165</v>
       </c>
       <c r="O19">
-        <v>0.07087378640776699</v>
+        <v>0.06401137980085349</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1388349514563107</v>
+        <v>0.1322901849217639</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Morehead St._B.xlsx
+++ b/team_specific_matrix/Morehead St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.175</v>
+        <v>0.174061433447099</v>
       </c>
       <c r="C2">
-        <v>0.5928571428571429</v>
+        <v>0.5938566552901023</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003571428571428571</v>
+        <v>0.003412969283276451</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1035714285714286</v>
+        <v>0.10580204778157</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.125</v>
+        <v>0.1228668941979522</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005952380952380952</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01785714285714286</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8214285714285714</v>
+        <v>0.8146067415730337</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1547619047619048</v>
+        <v>0.1573033707865168</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07623318385650224</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0179372197309417</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="E6">
-        <v>0.004484304932735426</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="F6">
-        <v>0.09417040358744394</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.273542600896861</v>
+        <v>0.2851239669421488</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0179372197309417</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1838565022421525</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.01345291479820628</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="S6">
-        <v>0.3183856502242152</v>
+        <v>0.3223140495867768</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0972972972972973</v>
+        <v>0.09</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02702702702702703</v>
+        <v>0.025</v>
       </c>
       <c r="E7">
-        <v>0.005405405405405406</v>
+        <v>0.005</v>
       </c>
       <c r="F7">
-        <v>0.03243243243243243</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1135135135135135</v>
+        <v>0.105</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01621621621621622</v>
+        <v>0.015</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2162162162162162</v>
+        <v>0.22</v>
       </c>
       <c r="R7">
-        <v>0.03243243243243243</v>
+        <v>0.03</v>
       </c>
       <c r="S7">
-        <v>0.4594594594594595</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09554140127388536</v>
+        <v>0.09218436873747494</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02547770700636943</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="E8">
-        <v>0.002123142250530786</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="F8">
-        <v>0.05095541401273886</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1061571125265393</v>
+        <v>0.1042084168336673</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02760084925690021</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1549893842887473</v>
+        <v>0.156312625250501</v>
       </c>
       <c r="R8">
-        <v>0.08492569002123142</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="S8">
-        <v>0.4522292993630573</v>
+        <v>0.4589178356713427</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1003861003861004</v>
+        <v>0.09454545454545454</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0193050193050193</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06177606177606178</v>
+        <v>0.06909090909090909</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.111969111969112</v>
+        <v>0.1127272727272727</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0193050193050193</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1814671814671815</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R9">
-        <v>0.08880308880308881</v>
+        <v>0.08727272727272728</v>
       </c>
       <c r="S9">
-        <v>0.416988416988417</v>
+        <v>0.4181818181818182</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1020746887966805</v>
+        <v>0.10390625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02157676348547718</v>
+        <v>0.0203125</v>
       </c>
       <c r="E10">
-        <v>0.002489626556016597</v>
+        <v>0.00234375</v>
       </c>
       <c r="F10">
-        <v>0.06473029045643154</v>
+        <v>0.065625</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1286307053941909</v>
+        <v>0.1234375</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01659751037344398</v>
+        <v>0.015625</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1867219917012448</v>
+        <v>0.18984375</v>
       </c>
       <c r="R10">
-        <v>0.07053941908713693</v>
+        <v>0.06796874999999999</v>
       </c>
       <c r="S10">
-        <v>0.4066390041493776</v>
+        <v>0.4109375</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.147887323943662</v>
+        <v>0.1525974025974026</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.102112676056338</v>
+        <v>0.1006493506493507</v>
       </c>
       <c r="K11">
-        <v>0.2147887323943662</v>
+        <v>0.2175324675324675</v>
       </c>
       <c r="L11">
-        <v>0.5176056338028169</v>
+        <v>0.5097402597402597</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0176056338028169</v>
+        <v>0.01948051948051948</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7870967741935484</v>
+        <v>0.7724550898203593</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1548387096774194</v>
+        <v>0.1616766467065868</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.006451612903225806</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05161290322580645</v>
+        <v>0.05389221556886228</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7368421052631579</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.131578947368421</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.131578947368421</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00423728813559322</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1567796610169492</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="I15">
-        <v>0.09745762711864407</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="J15">
-        <v>0.3432203389830508</v>
+        <v>0.3427419354838709</v>
       </c>
       <c r="K15">
-        <v>0.03389830508474576</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008474576271186441</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0635593220338983</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2923728813559322</v>
+        <v>0.2862903225806452</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01005025125628141</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1206030150753769</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="I16">
-        <v>0.1206030150753769</v>
+        <v>0.125</v>
       </c>
       <c r="J16">
-        <v>0.457286432160804</v>
+        <v>0.4471153846153846</v>
       </c>
       <c r="K16">
-        <v>0.09547738693467336</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01507537688442211</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04522613065326633</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.135678391959799</v>
+        <v>0.1394230769230769</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02142857142857143</v>
+        <v>0.02433628318584071</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1380952380952381</v>
+        <v>0.1393805309734513</v>
       </c>
       <c r="I17">
-        <v>0.1285714285714286</v>
+        <v>0.1305309734513274</v>
       </c>
       <c r="J17">
-        <v>0.3785714285714286</v>
+        <v>0.3672566371681416</v>
       </c>
       <c r="K17">
-        <v>0.09047619047619047</v>
+        <v>0.09513274336283185</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01904761904761905</v>
+        <v>0.01991150442477876</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08333333333333333</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1404761904761905</v>
+        <v>0.1438053097345133</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0189873417721519</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1265822784810127</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="I18">
-        <v>0.120253164556962</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="J18">
-        <v>0.3354430379746836</v>
+        <v>0.3395061728395062</v>
       </c>
       <c r="K18">
-        <v>0.1518987341772152</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0189873417721519</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0759493670886076</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1518987341772152</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02631578947368421</v>
+        <v>0.02664890073284477</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2368421052631579</v>
+        <v>0.2338441039307129</v>
       </c>
       <c r="I19">
-        <v>0.1009957325746799</v>
+        <v>0.09926715522984676</v>
       </c>
       <c r="J19">
-        <v>0.3271692745376956</v>
+        <v>0.3337774816788808</v>
       </c>
       <c r="K19">
-        <v>0.09530583214793741</v>
+        <v>0.09593604263824117</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01635846372688478</v>
+        <v>0.0173217854763491</v>
       </c>
       <c r="N19">
-        <v>0.0007112375533428165</v>
+        <v>0.0006662225183211193</v>
       </c>
       <c r="O19">
-        <v>0.06401137980085349</v>
+        <v>0.06395736175882745</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1322901849217639</v>
+        <v>0.128580946035976</v>
       </c>
     </row>
   </sheetData>
